--- a/data/case1/14/P1_6.xlsx
+++ b/data/case1/14/P1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.3634610751647358</v>
+        <v>0.36509669890178031</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991388948217</v>
+        <v>-0.0099999995999482394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999991273082003</v>
+        <v>-0.0089999995942591227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061993668955800274</v>
+        <v>0.061996261466966018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991368622219</v>
+        <v>-0.0059999995991528721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.017577556608603828</v>
+        <v>-0.020927391766896619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998967774602</v>
+        <v>-0.019999999507115618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998960602561</v>
+        <v>-0.019999999503421684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990864110231</v>
+        <v>-0.0059999995743531542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.022838306191694357</v>
+        <v>-0.020151785404735278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990949357027</v>
+        <v>-0.0044999995794299252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990806720582</v>
+        <v>-0.0059999995713737597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990821371085</v>
+        <v>-0.0059999995717570087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999026297559</v>
+        <v>-0.011999999540277528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990853532026</v>
+        <v>-0.0059999995732251676</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990892722899</v>
+        <v>-0.0059999995750392721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990981953744</v>
+        <v>-0.005999999579210602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.043018265670865752</v>
+        <v>0.039182502775344297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.087036493753887001</v>
+        <v>-0.084191257677313391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991373392874</v>
+        <v>-0.0089999996000358351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991362592624</v>
+        <v>-0.0089999995994523019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991357023745</v>
+        <v>-0.0089999995990508452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999991207552199</v>
+        <v>-0.0089999995906353547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04199999879383487</v>
+        <v>-0.041999999408319333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998787736637</v>
+        <v>-0.041999999404983335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990999628494</v>
+        <v>-0.0059999995811104156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990954069382</v>
+        <v>-0.00599999957865327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999078744267</v>
+        <v>-0.0059999995695809716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999008835971</v>
+        <v>-0.011999999531139949</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998927229701</v>
+        <v>-0.019999999485459607</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998966329642</v>
+        <v>-0.014999999507582018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998908214579</v>
+        <v>-0.020999999474978992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990503589729</v>
+        <v>-0.0059999995545672036</v>
       </c>
     </row>
   </sheetData>
